--- a/medicine/Enfance/Le_Prince_Caspian/Le_Prince_Caspian.xlsx
+++ b/medicine/Enfance/Le_Prince_Caspian/Le_Prince_Caspian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prince Caspian (en anglais : Prince Caspian: The Return to Narnia) est un roman fantastique pour la jeunesse de Clive Staples Lewis, publié en 1951. C'est le deuxième tome de la série Le Monde de Narnia, qui en compte sept. Dans l'ordre de lecture, c'est le quatrième.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un an s'est écoulé depuis Le Lion, la Sorcière blanche et l'Armoire magique. En Angleterre, c'est la rentrée des classes. Peter, Susan, Edmund et Lucy Pevensie retournent ensemble, en train, vers leurs écoles respectives. Mais dans une gare, ils sont happés et se retrouvent sur une île inconnue. En l'explorant, ils découvrent les ruines du palais où ils furent jadis rois et reines. Le temps s'est écoulé beaucoup plus vite à Narnia que dans le monde humain…
 Ils rencontrent le nain Trompillon et le sauvent de soldats Termarins voulant le tuer. Il leur apprend que, pendant leur absence, Narnia a changé : la magie y a presque disparu et la plupart des animaux ne parlent plus, à part quelques-uns qui vivent cachés, de même que les nains rebelles.
@@ -548,7 +562,9 @@
           <t>Liste des chapitres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'île
@@ -594,7 +610,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2008 : Le Monde de Narnia : Le Prince Caspian, film
 2008 : Le Monde de Narnia : Le Prince Caspian, jeu vidéo basé sur l'adaptation cinématographique</t>
@@ -625,15 +643,17 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(liste non exhaustive)
-1953 : Prince Caspian, le retour à Narnia ; traduit par Émile R. Blanchet, illustré par Romain Simon, collection : Idéal-Bibliothèque, Hachette, 187 p.[1] (1re édition en France)
+1953 : Prince Caspian, le retour à Narnia ; traduit par Émile R. Blanchet, illustré par Romain Simon, collection : Idéal-Bibliothèque, Hachette, 187 p. (1re édition en France)
 Rééditions :
-1973 : Prince Caspian, le retour à Narnia ; traduit par Émile R. Blanchet, illustré par François Batet, Collection : Bibliothèque rose, Hachette, 188 p[2].
-1982 : Le Prince Caspian ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes, Collection : Bibliothèque du chat perché, Flammarion, 279 p.[3]  (ISBN 2-08-091736-6)
-1993 : Le Prince Caspian ; traduit par Anne-Marie Dalmais ; ill. de Pauline Baynes, Collection : Castor poche. Junior, Flammarion, 279 p.[4]  (ISBN 2-08-162260-2)
-2008 : Le Prince Caspian ; traduit par Anne-Marie Dalmais, Collection : Folio junior no 1153, Gallimard-Jeunesse, 235 p.[4]   (ISBN 978-2-07-061992-4)</t>
+1973 : Prince Caspian, le retour à Narnia ; traduit par Émile R. Blanchet, illustré par François Batet, Collection : Bibliothèque rose, Hachette, 188 p.
+1982 : Le Prince Caspian ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes, Collection : Bibliothèque du chat perché, Flammarion, 279 p.  (ISBN 2-08-091736-6)
+1993 : Le Prince Caspian ; traduit par Anne-Marie Dalmais ; ill. de Pauline Baynes, Collection : Castor poche. Junior, Flammarion, 279 p.  (ISBN 2-08-162260-2)
+2008 : Le Prince Caspian ; traduit par Anne-Marie Dalmais, Collection : Folio junior no 1153, Gallimard-Jeunesse, 235 p.   (ISBN 978-2-07-061992-4)</t>
         </is>
       </c>
     </row>
